--- a/01.xlsx
+++ b/01.xlsx
@@ -5,16 +5,18 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hiros-h\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hiros-h\Documents\【連載】デジタルアドバンテージ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{15BF10EC-21DE-466D-8EA8-9C6057C32C31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{708AA090-BA14-49AA-A606-E0E5968D3548}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6120" yWindow="2055" windowWidth="28215" windowHeight="15097" xr2:uid="{615CB470-4B48-4322-9452-886F03802E02}"/>
+    <workbookView xWindow="6008" yWindow="938" windowWidth="28215" windowHeight="15097" xr2:uid="{615CB470-4B48-4322-9452-886F03802E02}"/>
   </bookViews>
   <sheets>
     <sheet name="点推定" sheetId="1" r:id="rId1"/>
     <sheet name="点推定 (完成例)" sheetId="2" r:id="rId2"/>
+    <sheet name="不偏標準偏差" sheetId="3" r:id="rId3"/>
+    <sheet name="不偏標準偏差 (完成例)" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="8">
   <si>
     <t>検定試験の結果</t>
     <rPh sb="0" eb="2">
@@ -76,6 +78,39 @@
     </rPh>
     <rPh sb="2" eb="4">
       <t>ブンサン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>不偏標準偏差</t>
+    <rPh sb="0" eb="2">
+      <t>フヘン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒョウジュン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヘンサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データの件数</t>
+    <rPh sb="4" eb="6">
+      <t>ケンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>定義通りに計算</t>
+    <rPh sb="0" eb="2">
+      <t>テイギ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ドオ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ケイサン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -136,7 +171,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -155,13 +190,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -178,6 +222,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -760,4 +807,294 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1233E751-EA8B-4ACF-8DA0-29844CB67578}">
+  <dimension ref="A1:B18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
+  <cols>
+    <col min="1" max="1" width="13.4375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A14" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="5">
+        <f>AVERAGE(B4:B13)</f>
+        <v>62.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A15" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="5"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A17" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="5"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="6"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEC94800-8972-4E56-8C87-F9E7327C17B7}">
+  <dimension ref="A1:B18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
+  <cols>
+    <col min="1" max="1" width="13.4375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A14" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="5">
+        <f>AVERAGE(B4:B13)</f>
+        <v>62.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A15" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="5">
+        <f>_xlfn.STDEV.S(B4:B13)</f>
+        <v>23.163429030358277</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A17" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="5">
+        <f>COUNT(B4:B13)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="6">
+        <f>_xlfn.GAMMA((B17-1)/2)/(_xlfn.GAMMA(B17/2)*SQRT(2/B17))*_xlfn.STDEV.P(B4:B13)</f>
+        <v>23.814535723496025</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/01.xlsx
+++ b/01.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hiros-h\Documents\【連載】デジタルアドバンテージ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{708AA090-BA14-49AA-A606-E0E5968D3548}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3A698F0-7FB9-4512-A215-B7D02A09E0D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6008" yWindow="938" windowWidth="28215" windowHeight="15097" xr2:uid="{615CB470-4B48-4322-9452-886F03802E02}"/>
   </bookViews>
   <sheets>
     <sheet name="点推定" sheetId="1" r:id="rId1"/>
     <sheet name="点推定 (完成例)" sheetId="2" r:id="rId2"/>
-    <sheet name="不偏標準偏差" sheetId="3" r:id="rId3"/>
-    <sheet name="不偏標準偏差 (完成例)" sheetId="4" r:id="rId4"/>
+    <sheet name="補正された不偏標準偏差" sheetId="3" r:id="rId3"/>
+    <sheet name="補正された不偏標準偏差 (完成例)" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -102,15 +102,12 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>定義通りに計算</t>
+    <t>補正された値</t>
     <rPh sb="0" eb="2">
-      <t>テイギ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ドオ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ケイサン</t>
+      <t>ホセイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>アタイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
